--- a/39 CALCULATE for Filtering within Formula/CALCULATE for Filtering within Formula Sample Input.xlsx
+++ b/39 CALCULATE for Filtering within Formula/CALCULATE for Filtering within Formula Sample Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/39 CALCULATE for Filtering in Formula/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deteconconsulting-my.sharepoint.com/personal/richard_steinbiss_detecon_com/Documents/Projekte/PowerBI Article Series/power-bi-series/39 CALCULATE for Filtering within Formula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E339D63-3629-4CE0-9A3D-E01AACD863D0}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4DB114E441178AC67DF4ED3651F588693EDF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF17F7AA-1C60-4A5E-B17B-299C411AE391}"/>
   <bookViews>
-    <workbookView xWindow="-13050" yWindow="-21720" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -148,10 +148,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -171,10 +171,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{2A3C1C56-C2FA-44FC-AD18-E8B8C6EB2754}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
+  <queryTableRefresh nextId="5">
     <queryTableFields count="3">
+      <queryTableField id="2" name="Year" tableColumnId="2"/>
       <queryTableField id="1" name="Product" tableColumnId="1"/>
-      <queryTableField id="2" name="Year" tableColumnId="2"/>
       <queryTableField id="3" name="Sales" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
@@ -185,9 +185,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB5D6650-4018-4487-BE51-85988D6E595B}" name="Table1_2" displayName="Table1_2" ref="A1:C45" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C45" xr:uid="{AB5D6650-4018-4487-BE51-85988D6E595B}"/>
   <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{7DF01C2A-42F0-4EAA-A81E-2263A412C9CC}" uniqueName="2" name="Year" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{F67A5B97-EB6A-4952-9F8E-6B29990C9A93}" uniqueName="1" name="Product" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7DF01C2A-42F0-4EAA-A81E-2263A412C9CC}" uniqueName="2" name="Year" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{EBA7DF09-72CD-4F0E-ABF5-23A96B184E3D}" uniqueName="3" name="Sales" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{EBA7DF09-72CD-4F0E-ABF5-23A96B184E3D}" uniqueName="3" name="Sales" queryTableFieldId="3" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,511 +456,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D42F46-B6C5-44F0-8B8A-86F4B1040A0A}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>30396</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>14472</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>14200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>20354</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>24314</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>34600</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>15662</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>15759</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>19391</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>28217</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>34414</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>7806</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>7089</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>8619</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>7049</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>6822</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>6052</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>8398</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
         <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>7248</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
       </c>
       <c r="C21" s="1">
         <v>8680</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
       </c>
       <c r="C22" s="1">
         <v>7996</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>6944</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
         <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>53306</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
         <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>31252</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
         <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
       </c>
       <c r="C26" s="1">
         <v>31881</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>36427</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
         <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>26516</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
         <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
       </c>
       <c r="C29" s="1">
         <v>34926</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
         <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
       </c>
       <c r="C30" s="1">
         <v>22592</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
         <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>44331</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
         <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>35977</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
         <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>49086</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
       </c>
       <c r="C34" s="1">
         <v>38759</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
         <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
       </c>
       <c r="C35" s="1">
         <v>38863</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
         <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
       </c>
       <c r="C36" s="1">
         <v>39615</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
       </c>
       <c r="C37" s="1">
         <v>39641</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
         <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
       </c>
       <c r="C38" s="1">
         <v>31233</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
         <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
       </c>
       <c r="C39" s="1">
         <v>31151</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
         <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
       </c>
       <c r="C40" s="1">
         <v>32912</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
         <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>39556</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
         <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
       </c>
       <c r="C42" s="1">
         <v>31332</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
         <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
       </c>
       <c r="C43" s="1">
         <v>31502</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
         <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
       </c>
       <c r="C44" s="1">
         <v>38699</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
         <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
       </c>
       <c r="C45" s="1">
         <v>38120</v>
       </c>
+      <c r="D45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
